--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C947912-2758-B548-9168-600148637B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F001EB5-7E81-F346-BDAF-C974E84DF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="llava" sheetId="1" r:id="rId1"/>
+    <sheet name="gpt4" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>stop_line</t>
   </si>
@@ -51,15 +52,28 @@
   </si>
   <si>
     <t>raised_table</t>
+  </si>
+  <si>
+    <t>no-vg</t>
+  </si>
+  <si>
+    <t>vg-both</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -86,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F5D77-A520-C544-95D3-EE905B58E0C5}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,4 +492,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFEA9FC-DE4A-9E4F-9713-B8094F9AD041}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.1993</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F001EB5-7E81-F346-BDAF-C974E84DF288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2F3C1-1F33-9841-900C-5A425D614CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="llava" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>8.6999999999999994E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1993</v>
+        <v>0.1736</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2F3C1-1F33-9841-900C-5A425D614CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBE1B6-D5BD-7F47-8C58-8895A9C053F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FBE1B6-D5BD-7F47-8C58-8895A9C053F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D383CE9-0849-114A-8903-1FFCC9376683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="llava" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -542,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1736</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51093E24-621E-5542-B06A-88C0EBC37BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C4D3F-613D-4C4F-B2C7-D5EB9F02E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="iou" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>stop_line</t>
   </si>
@@ -50,15 +50,20 @@
     <t>no-vg</t>
   </si>
   <si>
-    <t>vg-comb</t>
-  </si>
-  <si>
-    <t>vg-in-context 
+    <t>vg-comb 
 (no bbox)</t>
   </si>
   <si>
-    <t>vg-in-context 
-(with bbox)</t>
+    <t>vg-in-context</t>
+  </si>
+  <si>
+    <t>no bbox</t>
+  </si>
+  <si>
+    <t>with bbox</t>
+  </si>
+  <si>
+    <t>Objects</t>
   </si>
 </sst>
 </file>
@@ -66,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,16 +102,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F5D77-A520-C544-95D3-EE905B58E0C5}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,58 +468,96 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <v>0.24790000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <v>0.14949999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <v>0.21390000000000001</v>
       </c>
+      <c r="F3" s="1">
+        <v>0.2278</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <v>0.2142</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>0.2281</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>0.3165</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.35270000000000001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4C4D3F-613D-4C4F-B2C7-D5EB9F02E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512CD88-9381-C04F-AE6E-11A6116C55C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
@@ -108,15 +108,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,38 +469,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -508,7 +508,7 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="1">
@@ -523,7 +523,7 @@
       <c r="F3" s="1">
         <v>0.2278</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.2</v>
       </c>
     </row>
@@ -531,7 +531,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="C4" s="1">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E512CD88-9381-C04F-AE6E-11A6116C55C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0026D-B969-E446-A446-EDCED12CF8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="iou" sheetId="1" r:id="rId1"/>
+    <sheet name="gpt4-turbo" sheetId="1" r:id="rId1"/>
+    <sheet name="gpt-4o" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>stop_line</t>
   </si>
@@ -50,10 +51,6 @@
     <t>no-vg</t>
   </si>
   <si>
-    <t>vg-comb 
-(no bbox)</t>
-  </si>
-  <si>
     <t>vg-in-context</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vg-comb </t>
   </si>
 </sst>
 </file>
@@ -73,9 +73,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -102,22 +109,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,22 +465,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F5D77-A520-C544-95D3-EE905B58E0C5}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
@@ -478,30 +489,30 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -518,10 +529,10 @@
         <v>0.14949999999999999</v>
       </c>
       <c r="E3" s="1">
+        <v>0.2278</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.21390000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2278</v>
       </c>
       <c r="G3" s="3">
         <v>0.2</v>
@@ -541,10 +552,10 @@
         <v>0.2281</v>
       </c>
       <c r="E4" s="1">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.3165</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.29659999999999997</v>
       </c>
       <c r="G4" s="1">
         <v>0.35270000000000001</v>
@@ -552,12 +563,86 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941D0248-8F9D-BF44-95DD-45CBAB1154C3}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.36570000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.41889999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binhan/Documents/projects/2024-vl-annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F0026D-B969-E446-A446-EDCED12CF8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2393FF-1097-7442-A1A9-532091D92719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{AAF6710A-E911-EF43-B076-EE9F27CBDBB9}"/>
   </bookViews>
   <sheets>
     <sheet name="gpt4-turbo" sheetId="1" r:id="rId1"/>
@@ -89,12 +89,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -128,6 +134,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +481,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.2"/>
@@ -489,10 +504,10 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
@@ -502,10 +517,10 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -525,10 +540,10 @@
       <c r="C3" s="1">
         <v>0.24790000000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>0.14949999999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>0.2278</v>
       </c>
       <c r="F3" s="1">
@@ -548,10 +563,10 @@
       <c r="C4" s="1">
         <v>0.2142</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>0.2281</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <v>0.29659999999999997</v>
       </c>
       <c r="F4" s="1">
@@ -578,7 +593,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" x14ac:dyDescent="0.35"/>
@@ -591,7 +606,7 @@
     <col min="6" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
